--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranvikanwar/Downloads/PSK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0ABDCF2-E319-DC4E-9184-1ADF2D6D16A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0C1609-FA9A-1242-ACEC-440617C20D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{5FE700FA-6371-3740-B75F-6A91B87C9732}"/>
+    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17240" xr2:uid="{5FE700FA-6371-3740-B75F-6A91B87C9732}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>PSK</t>
+  </si>
+  <si>
+    <t>Kanwar</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC00E7A-7583-7C43-8668-084A4DB97A51}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,6 +443,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
